--- a/data/trans_camb/P16A10-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.6225367464084128</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.337903847911853</v>
+        <v>2.337903847911856</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.1784297047544889</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.507452560064781</v>
+        <v>-2.251064387809502</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.311576814802517</v>
+        <v>-2.081391435962807</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8348080562390675</v>
+        <v>-0.8929771706191003</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.80749854041385</v>
+        <v>-2.585393689772226</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.126810004313346</v>
+        <v>-1.009200684871526</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.231208435874934</v>
+        <v>2.358714492331093</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.780988982428639</v>
+        <v>-1.773354225059185</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.6945422976059756</v>
+        <v>-0.9581746005078899</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.759371121577114</v>
+        <v>1.962585241372971</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.412502608239112</v>
+        <v>3.755779613839017</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.684495108828317</v>
+        <v>4.320901466587816</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.594041042881205</v>
+        <v>5.678660491548794</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.998676538388698</v>
+        <v>2.01670165499954</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.646962290902234</v>
+        <v>4.73310292204371</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.329143053483635</v>
+        <v>7.684128971324871</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.866539199740108</v>
+        <v>2.069620036148891</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.492413343627939</v>
+        <v>3.267945052757272</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.878022754344295</v>
+        <v>5.848065565453481</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.05074818060250424</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1905821100354518</v>
+        <v>0.1905821100354521</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.01626614601603683</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1821664797483753</v>
+        <v>-0.1700579702297972</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1727727081265731</v>
+        <v>-0.1567718857420278</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.07247860102220172</v>
+        <v>-0.07166768478510899</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.241371422834039</v>
+        <v>-0.2120636748814911</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.09630132209479515</v>
+        <v>-0.08570643646618914</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1892875541203892</v>
+        <v>0.1852263757868901</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1415548383416105</v>
+        <v>-0.1408041008204817</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.05523038418187388</v>
+        <v>-0.0800231676852096</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1391313780330706</v>
+        <v>0.1608894333138396</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3070271681883123</v>
+        <v>0.347694030992846</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3310075571788642</v>
+        <v>0.3879279451495135</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5017283710135108</v>
+        <v>0.5114996899387291</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.202468282140532</v>
+        <v>0.2088352130830205</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4540999885233761</v>
+        <v>0.501118771029088</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7528940182273827</v>
+        <v>0.7957805095651013</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1791578968063631</v>
+        <v>0.1977527292329239</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.330597719015908</v>
+        <v>0.3037375023984451</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.557367383687238</v>
+        <v>0.5527057210992162</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9972835591226337</v>
+        <v>-0.9731616283396108</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6341549287859986</v>
+        <v>0.8356860208260141</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6352397872167131</v>
+        <v>0.6897514883755627</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.245381294942157</v>
+        <v>-1.253397269138932</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.2071990901820535</v>
+        <v>-0.04713933153258355</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.143240352628471</v>
+        <v>-0.05534003357809099</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.7841926795793446</v>
+        <v>-0.7949342304233094</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6198326795429639</v>
+        <v>0.608228136944736</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5477423859668133</v>
+        <v>0.5616158286219183</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.111093353718153</v>
+        <v>1.000755806642359</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.0667779028599</v>
+        <v>3.192032662759844</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.651762178079793</v>
+        <v>2.789101277495708</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4212998485015659</v>
+        <v>0.4839002567807925</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.810335142384873</v>
+        <v>1.885474425624794</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.622678987869155</v>
+        <v>1.551063605257579</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5522313503634504</v>
+        <v>0.4646849098299752</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.198187978567978</v>
+        <v>2.142489381347248</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.944702745414666</v>
+        <v>1.94315411678782</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3463579027991865</v>
+        <v>-0.33952073210702</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2008307267928016</v>
+        <v>0.27338377531646</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1909541356689702</v>
+        <v>0.2170243324892481</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5769656078426229</v>
+        <v>-0.5792606583039557</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1000826903038725</v>
+        <v>-0.04688697635945704</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.06888229457364571</v>
+        <v>-0.04427036605531234</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3370950720017109</v>
+        <v>-0.3374582153177777</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2607250099508511</v>
+        <v>0.2497230781078018</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2193115444718128</v>
+        <v>0.2218315304869001</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6392093192849773</v>
+        <v>0.5525289103570872</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.703853279047857</v>
+        <v>1.712386314229556</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.47257299306451</v>
+        <v>1.559917217928914</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3683737891173352</v>
+        <v>0.3710214039334427</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.373838972776221</v>
+        <v>1.531163780236661</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.388887592726606</v>
+        <v>1.239675875477626</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3416896996064452</v>
+        <v>0.2852518737694844</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.279865925973842</v>
+        <v>1.284415244034637</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.156711443416223</v>
+        <v>1.189902534570767</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.088838111731389</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.146417587154713</v>
+        <v>2.146417587154711</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.14890591412482</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.162049176432856</v>
+        <v>-2.078167702949917</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.8239523919670776</v>
+        <v>-1.043732573980136</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1516081637886664</v>
+        <v>0.3464316031967489</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.633876118697676</v>
+        <v>-2.589920959855761</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.7065692719698483</v>
+        <v>-0.7350408972196709</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.214837870459152</v>
+        <v>-1.224766556230749</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.916716298703941</v>
+        <v>-1.87352655407935</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.2998888189196676</v>
+        <v>-0.266263974281115</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.1188585311134938</v>
+        <v>-0.1271729334482042</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.761876094964138</v>
+        <v>1.638634002029477</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.22521367161726</v>
+        <v>3.253227381701687</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.961427920577947</v>
+        <v>3.956639923191908</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03128674972907215</v>
+        <v>0.06269747767081667</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.173324299249453</v>
+        <v>3.162473268240926</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.759428848317978</v>
+        <v>1.659632012013515</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3762220155506019</v>
+        <v>0.4447035002101625</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.569114162959867</v>
+        <v>2.533010409167811</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.269083424848476</v>
+        <v>2.248831550600871</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.5296421905466575</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.044079280877472</v>
+        <v>1.044079280877471</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.7036019247820552</v>
@@ -1197,7 +1197,7 @@
         <v>0.5686260280094416</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.6446243048199954</v>
+        <v>0.6446243048199952</v>
       </c>
     </row>
     <row r="20">
@@ -1208,29 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7328862041850102</v>
+        <v>-0.7194850952193214</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3389463136310467</v>
+        <v>-0.4412899648401725</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.02626163891834361</v>
-      </c>
-      <c r="F20" s="6" t="inlineStr"/>
+        <v>0.03388752484384291</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3748860236164671</v>
+        <v>-0.4020400643097984</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4684988332948545</v>
+        <v>-0.4627587570100164</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7431622711460002</v>
+        <v>-0.7390133973340964</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1424522773216241</v>
+        <v>-0.1242467027439165</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.04712469061717932</v>
+        <v>-0.06789802922036887</v>
       </c>
     </row>
     <row r="21">
@@ -1241,29 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.476595040080861</v>
+        <v>1.387931092283836</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.54863893489289</v>
+        <v>2.722268581857123</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.358549745567607</v>
-      </c>
-      <c r="F21" s="6" t="inlineStr"/>
+        <v>3.685326357452483</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.7460168686517088</v>
+      </c>
       <c r="G21" s="6" t="n">
-        <v>3.762696264618802</v>
+        <v>3.824038476667999</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.547978369046971</v>
+        <v>2.482133371863512</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3818938814691147</v>
+        <v>0.4477629008684525</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.182088709268294</v>
+        <v>2.115212565560361</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.960225030519464</v>
+        <v>1.898120522448608</v>
       </c>
     </row>
     <row r="22">
@@ -1284,7 +1288,7 @@
         <v>0.6000311260251155</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3894978369290078</v>
+        <v>0.3894978369290071</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.5183736086223085</v>
@@ -1293,7 +1297,7 @@
         <v>0.07126876115951877</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.04270757683124543</v>
+        <v>0.04270757683124404</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.3255384620218099</v>
@@ -1313,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.176063737631351</v>
+        <v>-1.233952250164593</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.5121075515169743</v>
+        <v>-0.4911877980360142</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.7005736814833309</v>
+        <v>-0.5848811797793533</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.528829724122197</v>
+        <v>-1.535949758998798</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.036122192854616</v>
+        <v>-0.9984805278744407</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.9452875546483676</v>
+        <v>-0.9978588956527997</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.076541467424406</v>
+        <v>-1.134002369200247</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.54481880528014</v>
+        <v>-0.4994556218724989</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.5239687154377107</v>
+        <v>-0.4659617248243967</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.130140796610182</v>
+        <v>1.017683629450534</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.858562940073247</v>
+        <v>1.65394696844107</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.302979362701133</v>
+        <v>1.524989953266127</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6063034512211357</v>
+        <v>0.4835941730971482</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.239888485876599</v>
+        <v>1.20407484824246</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.014228944938275</v>
+        <v>0.9845669154355901</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4775207025495993</v>
+        <v>0.4360468086818147</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.081129106138379</v>
+        <v>1.159232319118875</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8538458544251705</v>
+        <v>0.8961389597659933</v>
       </c>
     </row>
     <row r="25">
@@ -1389,7 +1393,7 @@
         <v>0.1108482359485653</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.07195484743495671</v>
+        <v>0.07195484743495657</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.09789028972136331</v>
@@ -1398,7 +1402,7 @@
         <v>0.01345847775030362</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008064949680634804</v>
+        <v>0.008064949680634542</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.06081018146562499</v>
@@ -1418,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1973002802382525</v>
+        <v>-0.2027820576745233</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.08296051378331355</v>
+        <v>-0.07976881302202887</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.113094773051206</v>
+        <v>-0.09866537226683594</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2681081429770713</v>
+        <v>-0.2592898445711279</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1786150431050836</v>
+        <v>-0.167556192902922</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1596581933934886</v>
+        <v>-0.1686664311187442</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1845611624788377</v>
+        <v>-0.1939420959617559</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.09451479834807326</v>
+        <v>-0.09012810138873784</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.09009265797648155</v>
+        <v>-0.08021708892922071</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2287494607664874</v>
+        <v>0.2071865237695233</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3803488378476331</v>
+        <v>0.3455800452448383</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2661304777722876</v>
+        <v>0.3101538108940942</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.131264437809516</v>
+        <v>0.1028961941523701</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2615599143187939</v>
+        <v>0.2493021189578256</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2182193931380193</v>
+        <v>0.2060670951712336</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09619090535155103</v>
+        <v>0.08772367319597627</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2153499480360743</v>
+        <v>0.2340508645315846</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1749192156222071</v>
+        <v>0.1831065155321216</v>
       </c>
     </row>
     <row r="28">
